--- a/src/lib/assets/data/food-nutrition.xlsx
+++ b/src/lib/assets/data/food-nutrition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkjju/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkjju/Desktop/nuseum-production/nuseum/src/lib/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A167673-5B6E-4E4B-84B6-272EF9FD3927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD37B5-42CC-B34E-9A81-DBFEC503085E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16940" xr2:uid="{6E0356C2-E99B-764E-87A0-AE37CFD4A654}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="97">
   <si>
     <t>DHA+EPA(mg)</t>
   </si>
@@ -414,10 +414,6 @@
   </si>
   <si>
     <t>우뭇가사리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +576,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -868,7 +864,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -878,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5936285B-90CB-D24C-99DB-589DA9C6560E}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1146,9 +1142,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1175,9 +1169,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
@@ -1204,27 +1196,19 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="5" t="s">
         <v>65</v>
       </c>
@@ -1233,613 +1217,295 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
